--- a/feedback_forms/testing_versions/standard/energy_operator_feedback_v003_test_01_good_data.xlsx
+++ b/feedback_forms/testing_versions/standard/energy_operator_feedback_v003_test_01_good_data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6381AD9F-A602-4998-B0AC-0F272D5144A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25921CC-78FA-4C33-B0B1-8AE82F382AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="TEnSiyQRyHMLKh0iio57k8WHgCSKlta9Y2oQS7Ap8AKYcD8941iom+0NU7naEtnZrWUNYZK8U2Da4f/dkytFfA==" workbookSaltValue="9GM30+WE6ZO6G9hkff5wPg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3927" yWindow="1360" windowWidth="19200" windowHeight="11387" tabRatio="704" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="3394" yWindow="4011" windowWidth="21729" windowHeight="13260" tabRatio="704" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -2595,22 +2595,22 @@
   <dimension ref="B1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.17578125" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" customWidth="1"/>
-    <col min="5" max="5" width="4.17578125" customWidth="1"/>
-    <col min="6" max="6" width="5.703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="28.52734375" customWidth="1"/>
-    <col min="8" max="8" width="22.17578125" customWidth="1"/>
+    <col min="1" max="1" width="4.15234375" customWidth="1"/>
+    <col min="2" max="2" width="65.69140625" customWidth="1"/>
+    <col min="3" max="3" width="4.69140625" customWidth="1"/>
+    <col min="4" max="4" width="65.69140625" customWidth="1"/>
+    <col min="5" max="5" width="4.15234375" customWidth="1"/>
+    <col min="6" max="6" width="5.69140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="28.53515625" customWidth="1"/>
+    <col min="8" max="8" width="22.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="39"/>
     </row>
-    <row r="3" spans="2:33" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B3" s="24" t="s">
         <v>156</v>
       </c>
@@ -2664,14 +2664,14 @@
       <c r="E3" s="24"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="2:33" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
       <c r="F4" s="39"/>
     </row>
-    <row r="5" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="27" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" s="27" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -2741,7 +2741,7 @@
       <c r="AF6" s="41"/>
       <c r="AG6" s="41"/>
     </row>
-    <row r="7" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B8" s="49" t="s">
         <v>135</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="E8" s="31"/>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="2:33" s="30" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="30" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="51" t="s">
         <v>137</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="39"/>
     </row>
-    <row r="10" spans="2:33" s="30" customFormat="1" ht="20.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="30" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="50" t="s">
         <v>136</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="39"/>
     </row>
-    <row r="11" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="49" t="s">
         <v>138</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="49" t="s">
         <v>139</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="39"/>
     </row>
-    <row r="13" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="52" t="s">
         <v>140</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="AF13" s="29"/>
       <c r="AG13" s="29"/>
     </row>
-    <row r="14" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="54" t="s">
         <v>164</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="AF14" s="29"/>
       <c r="AG14" s="29"/>
     </row>
-    <row r="15" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="55" t="s">
         <v>165</v>
       </c>
@@ -2903,7 +2903,7 @@
       <c r="E15" s="31"/>
       <c r="F15" s="39"/>
     </row>
-    <row r="16" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="53" t="s">
         <v>141</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="E16" s="31"/>
       <c r="F16" s="39"/>
     </row>
-    <row r="17" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -2982,7 +2982,7 @@
       <c r="AF18" s="42"/>
       <c r="AG18" s="42"/>
     </row>
-    <row r="19" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -3018,18 +3018,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="60">
-        <v>2011</v>
+        <v>1002011</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
     </row>
-    <row r="21" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="47" t="s">
         <v>129</v>
       </c>
@@ -3040,7 +3040,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="47" t="s">
         <v>130</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
     </row>
-    <row r="23" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="47" t="s">
         <v>131</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
     </row>
-    <row r="24" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="47" t="s">
         <v>132</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
     </row>
-    <row r="25" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="47" t="s">
         <v>133</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" s="27" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:33" s="27" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -3154,7 +3154,7 @@
       <c r="AF27" s="41"/>
       <c r="AG27" s="41"/>
     </row>
-    <row r="28" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B29" s="48" t="s">
         <v>134</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="E29" s="44"/>
       <c r="F29" s="39"/>
     </row>
-    <row r="30" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B30" s="56" t="s">
         <v>166</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="E30" s="44"/>
       <c r="F30" s="39"/>
     </row>
-    <row r="31" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B31" s="56" t="s">
         <v>167</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="E31" s="44"/>
       <c r="F31" s="39"/>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B32" s="56" t="s">
         <v>168</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="39"/>
     </row>
-    <row r="33" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:33" s="27" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:33" s="27" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
@@ -3304,7 +3304,7 @@
       <c r="AF34" s="41"/>
       <c r="AG34" s="41"/>
     </row>
-    <row r="35" spans="2:33" s="23" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:33" s="23" customFormat="1" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:33" s="15" customFormat="1" ht="50.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:33" s="15" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="56" t="s">
         <v>169</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="E36" s="34"/>
       <c r="F36" s="39"/>
     </row>
-    <row r="37" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:33" s="15" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="56" t="s">
         <v>170</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="E37" s="34"/>
       <c r="F37" s="39"/>
     </row>
-    <row r="38" spans="2:33" s="15" customFormat="1" ht="50.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:33" s="15" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="56" t="s">
         <v>171</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="E38" s="34"/>
       <c r="F38" s="39"/>
     </row>
-    <row r="39" spans="2:33" s="15" customFormat="1" ht="50.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:33" s="15" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="56" t="s">
         <v>172</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="E39" s="34"/>
       <c r="F39" s="39"/>
     </row>
-    <row r="40" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:33" s="15" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="56" t="s">
         <v>173</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="E40" s="34"/>
       <c r="F40" s="39"/>
     </row>
-    <row r="41" spans="2:33" s="15" customFormat="1" ht="50.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:33" s="15" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="56" t="s">
         <v>174</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="E41" s="34"/>
       <c r="F41" s="39"/>
     </row>
-    <row r="42" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="15" customFormat="1" ht="30.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B42" s="56" t="s">
         <v>175</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="E42" s="34"/>
       <c r="F42" s="39"/>
     </row>
-    <row r="43" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="15" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B43" s="33" t="s">
         <v>176</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
     </row>
-    <row r="44" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="15" customFormat="1" ht="45.45" x14ac:dyDescent="0.4">
       <c r="B44" s="56" t="s">
         <v>177</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
     </row>
-    <row r="45" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:33" s="27" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:33" s="27" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
@@ -3509,7 +3509,7 @@
       <c r="AF46" s="41"/>
       <c r="AG46" s="41"/>
     </row>
-    <row r="47" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:33" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B48" s="56" t="s">
         <v>185</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="E48" s="36"/>
       <c r="F48" s="39"/>
     </row>
-    <row r="49" spans="2:33" s="15" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:33" s="15" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B49" s="56" t="s">
         <v>186</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="E49" s="39"/>
       <c r="F49" s="39"/>
     </row>
-    <row r="50" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:33" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B50" s="56" t="s">
         <v>180</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
     </row>
-    <row r="51" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:33" s="15" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B51" s="56" t="s">
         <v>181</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
     </row>
-    <row r="52" spans="2:33" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:33" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B52" s="33" t="s">
         <v>182</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
     </row>
-    <row r="53" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:33" ht="40" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:33" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F54" s="39"/>
     </row>
-    <row r="56" spans="2:33" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:33" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.4">
       <c r="B56" s="33" t="s">
         <v>184</v>
       </c>
@@ -3690,19 +3690,19 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="10.64453125" customWidth="1"/>
-    <col min="4" max="4" width="80.64453125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="80.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3726,17 +3726,17 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>199</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B12" s="15" t="s">
         <v>205</v>
       </c>
@@ -3758,72 +3758,72 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="15"/>
       <c r="C13" s="58"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="15"/>
       <c r="C15" s="58"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -3845,25 +3845,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="10.703125" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.52734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" customWidth="1"/>
+    <col min="3" max="3" width="45.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G3" s="17"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -3877,7 +3877,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3885,15 +3885,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="D13" s="16"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="D14" s="16"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="D15" s="16"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
@@ -3941,7 +3941,7 @@
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="G19" s="17"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -3972,7 +3972,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>1</v>
       </c>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" ht="100.35" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>2</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>4</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="D25" s="16"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>6</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="D26" s="16"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>7</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="D27" s="16"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>8</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="D28" s="16"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>9</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="D29" s="16"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>10</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>11</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="D31" s="16"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>12</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="D32" s="16"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>13</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="D33" s="16"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>14</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="D34" s="16"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>15</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="D35" s="16"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="10">
         <v>16</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="D36" s="16"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="10">
         <v>17</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="D37" s="16"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="10">
         <v>18</v>
       </c>
@@ -4195,7 +4195,7 @@
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="10">
         <v>19</v>
       </c>
@@ -4203,7 +4203,7 @@
       <c r="D39" s="16"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="10">
         <v>20</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="D40" s="16"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="10">
         <v>21</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="D41" s="16"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="10">
         <v>22</v>
       </c>
@@ -4227,7 +4227,7 @@
       <c r="D42" s="16"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="10">
         <v>23</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="D43" s="16"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="10">
         <v>24</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="D44" s="16"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="10">
         <v>25</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="D45" s="16"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="10">
         <v>26</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="10">
         <v>27</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="D47" s="16"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10">
         <v>28</v>
       </c>
@@ -4275,7 +4275,7 @@
       <c r="D48" s="16"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="10">
         <v>29</v>
       </c>
@@ -4283,47 +4283,47 @@
       <c r="D49" s="16"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C60" s="15"/>
       <c r="G60" s="15"/>
     </row>
@@ -4349,14 +4349,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="91.29296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.17578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="91.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -4370,12 +4370,12 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4389,7 +4389,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -4427,7 +4427,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -4441,7 +4441,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
@@ -4458,7 +4458,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -4473,7 +4473,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -4538,7 +4538,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
         <v>110</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -4569,7 +4569,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>115</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>111</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>112</v>
       </c>
@@ -4654,7 +4654,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>113</v>
       </c>
@@ -4671,7 +4671,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>114</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -4702,7 +4702,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" s="7" t="s">
         <v>118</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -4733,7 +4733,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>116</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>35</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>117</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>111</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>112</v>
       </c>
@@ -4835,7 +4835,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>113</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>114</v>
       </c>
@@ -4869,7 +4869,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -4883,7 +4883,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" s="7" t="s">
         <v>119</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -4914,7 +4914,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -4931,7 +4931,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>116</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>35</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>117</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>111</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>112</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -5030,7 +5030,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B47" s="7"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -5062,7 +5062,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>8</v>
       </c>
@@ -5079,7 +5079,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>37</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>38</v>
       </c>
@@ -5113,7 +5113,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>39</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>40</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>41</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>42</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>43</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>44</v>
       </c>
@@ -5215,7 +5215,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>45</v>
       </c>
@@ -5232,7 +5232,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>46</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>47</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>48</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>49</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -5314,7 +5314,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B63" s="7" t="s">
         <v>50</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B64" s="7"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
@@ -5346,7 +5346,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>8</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B66" s="2" t="s">
         <v>51</v>
       </c>
@@ -5380,70 +5380,70 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B68" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B70" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B72" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B73" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B74" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B77" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
         <v>62</v>
       </c>
@@ -5460,32 +5460,32 @@
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B83" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -5524,19 +5524,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="9" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -5599,18 +5599,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5642,12 +5642,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8" t="s">
         <v>78</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>80</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>81</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>82</v>
       </c>
@@ -5695,17 +5695,17 @@
       <selection activeCell="A11" sqref="A11:R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="19.52734375" customWidth="1"/>
-    <col min="3" max="3" width="10.17578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.17578125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="19.53515625" customWidth="1"/>
+    <col min="3" max="3" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C3" s="1"/>
       <c r="F3" s="9"/>
       <c r="G3" s="17"/>
@@ -5729,7 +5729,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5740,32 +5740,32 @@
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>74</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>74</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>74</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>74</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>74</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>74</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>1000011</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>74</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>74</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>74</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>74</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>74</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>74</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>74</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>74</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>74</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>74</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>74</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>74</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>45159.666666666664</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>74</v>
       </c>
@@ -6229,15 +6229,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -6472,6 +6463,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
   <ds:schemaRefs>
@@ -6484,14 +6484,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6508,4 +6500,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/feedback_forms/testing_versions/standard/energy_operator_feedback_v003_test_01_good_data.xlsx
+++ b/feedback_forms/testing_versions/standard/energy_operator_feedback_v003_test_01_good_data.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25921CC-78FA-4C33-B0B1-8AE82F382AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052E1DC-2BBA-4F40-AA6F-A3EBEA996860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="TEnSiyQRyHMLKh0iio57k8WHgCSKlta9Y2oQS7Ap8AKYcD8941iom+0NU7naEtnZrWUNYZK8U2Da4f/dkytFfA==" workbookSaltValue="9GM30+WE6ZO6G9hkff5wPg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3394" yWindow="4011" windowWidth="21729" windowHeight="13260" tabRatio="704" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="8434" yWindow="2331" windowWidth="21729" windowHeight="13260" tabRatio="704" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="219">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1066,15 +1066,6 @@
   <si>
     <t>Going forward the sector is 'Energy' and the schema is 'energy_v01_00'
 There may be previous version v003 files that were created with different sector and schema numbers, those may need to be manually changed to the correct sector/schema before ingested into the portal website.</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>35.3211</t>
-  </si>
-  <si>
-    <t>-119.5808</t>
   </si>
   <si>
     <t>06/25/2024 00:00</t>
@@ -2595,7 +2586,7 @@
   <dimension ref="B1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -3034,8 +3025,8 @@
         <v>129</v>
       </c>
       <c r="C21" s="31"/>
-      <c r="D21" s="60" t="s">
-        <v>207</v>
+      <c r="D21" s="60">
+        <v>1234</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -3046,7 +3037,7 @@
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="61" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3056,8 +3047,8 @@
         <v>131</v>
       </c>
       <c r="C23" s="31"/>
-      <c r="D23" s="60" t="s">
-        <v>208</v>
+      <c r="D23" s="60">
+        <v>35.321100000000001</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -3067,8 +3058,8 @@
         <v>132</v>
       </c>
       <c r="C24" s="31"/>
-      <c r="D24" s="60" t="s">
-        <v>209</v>
+      <c r="D24" s="60">
+        <v>-119.5808</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -3079,7 +3070,7 @@
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="62" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3196,7 +3187,7 @@
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="39"/>
@@ -3207,7 +3198,7 @@
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E30" s="44"/>
       <c r="F30" s="39"/>
@@ -3218,7 +3209,7 @@
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="63" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E31" s="44"/>
       <c r="F31" s="39"/>
@@ -3229,7 +3220,7 @@
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="43" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="39"/>
@@ -3423,7 +3414,7 @@
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -3434,7 +3425,7 @@
       </c>
       <c r="C44" s="39"/>
       <c r="D44" s="57" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
@@ -3551,7 +3542,7 @@
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E48" s="36"/>
       <c r="F48" s="39"/>
@@ -3562,7 +3553,7 @@
       </c>
       <c r="C49" s="35"/>
       <c r="D49" s="57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39"/>
@@ -3595,7 +3586,7 @@
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="64" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
@@ -3639,13 +3630,13 @@
     <row r="54" spans="2:33" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F54" s="39"/>
     </row>
-    <row r="56" spans="2:33" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:33" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B56" s="33" t="s">
         <v>184</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F56" s="39"/>
     </row>
@@ -6218,17 +6209,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -6463,7 +6443,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6472,18 +6452,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6502,10 +6482,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>